--- a/data/netflix_average_stock_price.xlsx
+++ b/data/netflix_average_stock_price.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daryarudnik/neuefische DR/capstone-repo_hiral-darya/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3C7EAE-1EEB-8246-815D-2EFCEDE44F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B98543-7920-6D41-A36E-558C1AE27BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="-400" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="netflix_stock_price" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -413,7 +413,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/netflix_average_stock_price.xlsx
+++ b/data/netflix_average_stock_price.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daryarudnik/neuefische DR/capstone-repo_hiral-darya/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B98543-7920-6D41-A36E-558C1AE27BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2C5AED-5A94-5F4A-AD8B-902E69832E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="-400" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7640" yWindow="880" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="netflix_stock_price" sheetId="1" r:id="rId1"/>
@@ -38,16 +38,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,12 +91,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -412,14 +420,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -434,10 +443,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>2014</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>57.628730158730157</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -445,10 +454,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2015</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>91.895674603174626</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -456,10 +465,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>2016</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>102.03035714285713</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -467,10 +476,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>2017</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>165.37426294820727</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -478,10 +487,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>2018</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>319.29031872509984</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -489,10 +498,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>2019</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>328.87126984126996</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -500,10 +509,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>2020</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>446.82723320158095</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -511,10 +520,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>2021</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>558.21769841269838</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -522,10 +531,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>2022</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>288.86370786516864</v>
       </c>
       <c r="C10" s="2" t="s">
